--- a/spider/ua.xlsx
+++ b/spider/ua.xlsx
@@ -14,77 +14,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
-  <si>
-    <t>firefox android</t>
-  </si>
-  <si>
-    <t>Mozilla/5.0 (Android 6.0.1; Mobile; rv:48.0) Gecko/48.0 Firefox/48.0
--------
-Mozilla\/(\d+(?:\.\d+)+)\s\(Android(?:\s(\d+(?:\.\d+)+))?;(?:\s\w+;)*\srv:(\d+(?:\.\d+)+)\)\sGecko\/(\d+(?:\.\d+)+)\sFirefox\/(\d+(?:\.\d+)+)$</t>
-  </si>
-  <si>
-    <t>firefox iOS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t>Firefox android</t>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (Android 6.0.1; Mobile; rv:48.0) Gecko/48.0 Firefox/48.0</t>
+  </si>
+  <si>
+    <t>Firefox iOS</t>
   </si>
   <si>
     <t>Mozilla/5.0 (iPhone; CPU iPhone OS 10_3_2 like Mac OS X) AppleWebKit/603.2.4 (KHTML, like Gecko) FxiOS/7.5b3349 Mobile/14F89 Safari/603.2.4</t>
   </si>
   <si>
-    <t>firefox windows</t>
+    <t>Firefox windows</t>
   </si>
   <si>
     <t>Mozilla/5.0 (Windows NT 6.1; Win64; x64; rv:63.0) Gecko/20100101 Firefox/63.0</t>
   </si>
   <si>
-    <t>firefox linux</t>
+    <t>Firefox linux</t>
   </si>
   <si>
     <t>Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:61.0) Gecko/20100101 Firefox/61.0</t>
   </si>
   <si>
-    <t>firefox macOS</t>
+    <t>Firefox macOS</t>
   </si>
   <si>
     <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10.12; rv:52.0) Gecko/20100101 Firefox/52.0</t>
   </si>
   <si>
-    <t>chrome android</t>
+    <t>Chrome android</t>
   </si>
   <si>
     <t>Mozilla/5.0 (Linux; Android 7.1; Mi A1 Build/N2G47H) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/58.0.3029.83 Mobile Safari/537.36</t>
   </si>
   <si>
-    <t>chrome iOS</t>
+    <t>Chrome iOS</t>
   </si>
   <si>
     <t>Mozilla/5.0 (iPhone; CPU iPhone OS 11_2_5 like Mac OS X) AppleWebKit/604.1.34 (KHTML, like Gecko) CriOS/64.0.3282.112 Mobile/15D60 Safari/604.1</t>
   </si>
   <si>
-    <t>chrome windows</t>
+    <t>Chrome macOS</t>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_13_4) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/65.0.3325.181 Safari/537.36</t>
+  </si>
+  <si>
+    <t>Chrome windows</t>
   </si>
   <si>
     <t>Mozilla/5.0 (Windows NT 6.1; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/69.0.3497.100 Safari/537.36</t>
   </si>
   <si>
-    <t>chrome linux</t>
+    <t>Chrome linux</t>
   </si>
   <si>
     <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/69.0.3497.92 Safari/537.36</t>
   </si>
   <si>
-    <t>chrome macOS</t>
-  </si>
-  <si>
-    <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_13_4) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/65.0.3325.181 Safari/537.36</t>
-  </si>
-  <si>
-    <t>safari macOS</t>
+    <t>Safari macOS</t>
   </si>
   <si>
     <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_13_6) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/11.1.2 Safari/605.1.15</t>
   </si>
   <si>
-    <t>safari iOS</t>
+    <t>Safari iOS</t>
   </si>
   <si>
     <t>Mozilla/5.0 (iPhone; CPU iPhone OS 11_3 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/11.0 Mobile/15E148 Safari/604.1
@@ -115,7 +116,7 @@
     <t>Mozilla/5.0 (Windows NT 6.1; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/63.0.3239.26 Safari/537.36 Core/1.63.6776.400 QQBrowser/10.3.2589.400</t>
   </si>
   <si>
-    <t>regex:</t>
+    <t>Regexpr:</t>
   </si>
   <si>
     <t>semantic version: x.xx.x</t>
@@ -136,63 +137,238 @@
     <t>(\d+(?:_\d+)+)</t>
   </si>
   <si>
+    <t>sha1</t>
+  </si>
+  <si>
+    <t>([a-f0-9]{4,}+)</t>
+  </si>
+  <si>
     <t>iOS(only iPad, iPhone)</t>
   </si>
   <si>
-    <t>(iPad|iPhone);\sCPU\s(?:iPhone\s)?OS\s(\d+(?:_\d+)*)\slike\sMac\sOS\sX</t>
-  </si>
-  <si>
-    <t>sha1</t>
-  </si>
-  <si>
-    <t>([a-f0-9]{4,}+)</t>
+    <t>(iPad|iPhone|iPod\stouch);\sCPU\s(?:iPhone\s)?OS\s(\d+(?:_\d+)*)\slike\sMac\sOS\sX</t>
   </si>
   <si>
     <t>macOS</t>
   </si>
   <si>
-    <t>windows</t>
-  </si>
-  <si>
-    <t>linux</t>
-  </si>
-  <si>
-    <t>android</t>
-  </si>
-  <si>
-    <t>firefox</t>
-  </si>
-  <si>
-    <t>FxiOS\/(\d+)\.([a-f0-9A-F]+)
-----
-Firefox\/(\d+(?:\.\d+)+)$</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>safari</t>
-  </si>
-  <si>
-    <t>security level:</t>
+    <t>(Macintosh;){1}</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>(Windows\sNT\s\d+){1}</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>(X11;){1}[\s\S]+(Linux){1}</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>(Android){1}</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>(Firefox|FxiOS)\/(\d+(?:\.\w+)+)</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>(Chrome|CriOS)\/(\d+(?:\.\d+)+)</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>Version\/(\d+(?:\.\d+)+)\s(Mobile\/\w+\s)?Safari\/(\d+(?:\.\d+)+)</t>
+  </si>
+  <si>
+    <t>Security level:</t>
   </si>
   <si>
     <t xml:space="preserve">N </t>
   </si>
   <si>
-    <t>for no security</t>
+    <t>For no security</t>
   </si>
   <si>
     <t xml:space="preserve">U </t>
   </si>
   <si>
-    <t>for strong security</t>
+    <t>For strong security</t>
   </si>
   <si>
     <t xml:space="preserve">I </t>
   </si>
   <si>
-    <t>for weak security</t>
+    <t>For weak security</t>
+  </si>
+  <si>
+    <t>Windows distributions</t>
+  </si>
+  <si>
+    <t>Windows NT 5.0</t>
+  </si>
+  <si>
+    <t>Windows 2000</t>
+  </si>
+  <si>
+    <t>Windows NT 5.1</t>
+  </si>
+  <si>
+    <t>Windows XP</t>
+  </si>
+  <si>
+    <t>Windows NT 5.2</t>
+  </si>
+  <si>
+    <t>Windows Server 2003</t>
+  </si>
+  <si>
+    <t>Windows NT 6.0</t>
+  </si>
+  <si>
+    <t>Windows Vista</t>
+  </si>
+  <si>
+    <t>Windows NT 6.1</t>
+  </si>
+  <si>
+    <t>Windows 7</t>
+  </si>
+  <si>
+    <t>Windows NT 6.2</t>
+  </si>
+  <si>
+    <t>Windows 8</t>
+  </si>
+  <si>
+    <t>Windows NT 6.3</t>
+  </si>
+  <si>
+    <t>Windows 8.1</t>
+  </si>
+  <si>
+    <t>Windows NT 10.0</t>
+  </si>
+  <si>
+    <t>Windows 10</t>
+  </si>
+  <si>
+    <t>Android distributions</t>
+  </si>
+  <si>
+    <t>(NO NAME)</t>
+  </si>
+  <si>
+    <t>Petit Four</t>
+  </si>
+  <si>
+    <t>Cupcake</t>
+  </si>
+  <si>
+    <t>Donut</t>
+  </si>
+  <si>
+    <t>Eclair</t>
+  </si>
+  <si>
+    <t>2.0 – 2.1</t>
+  </si>
+  <si>
+    <t>Froyo</t>
+  </si>
+  <si>
+    <t>2.2 – 2.2.3</t>
+  </si>
+  <si>
+    <t>Gingerbread</t>
+  </si>
+  <si>
+    <t>2.3 – 2.3.7</t>
+  </si>
+  <si>
+    <t>Honeycomb</t>
+  </si>
+  <si>
+    <t>3.0 – 3.2.6</t>
+  </si>
+  <si>
+    <t>Ice Cream Sandwich</t>
+  </si>
+  <si>
+    <t>4.0 – 4.0.4</t>
+  </si>
+  <si>
+    <t>Jelly Bean</t>
+  </si>
+  <si>
+    <t>4.1 – 4.3.1</t>
+  </si>
+  <si>
+    <t>KitKat</t>
+  </si>
+  <si>
+    <t>4.4 – 4.4.4</t>
+  </si>
+  <si>
+    <t>Lollipop</t>
+  </si>
+  <si>
+    <t>5.0 – 5.1.1</t>
+  </si>
+  <si>
+    <t>Marshmallow</t>
+  </si>
+  <si>
+    <t>6.0 – 6.0.1</t>
+  </si>
+  <si>
+    <t>Nougat</t>
+  </si>
+  <si>
+    <t>7.0 – 7.1.2</t>
+  </si>
+  <si>
+    <t>Oreo</t>
+  </si>
+  <si>
+    <t>8.0 – 8.1</t>
+  </si>
+  <si>
+    <t>Pie</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>https://developer.chrome.com/multidevice/user-agent</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/HTTP/Headers/User-Agent/Firefox</t>
+  </si>
+  <si>
+    <t>User Agent Database</t>
+  </si>
+  <si>
+    <t>https://developers.whatismybrowser.com/</t>
+  </si>
+  <si>
+    <t>Old versions</t>
+  </si>
+  <si>
+    <t>https://ftp.mozilla.org/pub/firefox/releases/</t>
+  </si>
+  <si>
+    <t>https://www.slimjet.com/chrome/google-chrome-old-version.php</t>
   </si>
 </sst>
 </file>
@@ -200,18 +376,37 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lato"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Lato"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -221,20 +416,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Lato"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,8 +437,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,113 +558,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -391,31 +580,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,13 +712,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,127 +754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,8 +786,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,7 +796,57 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,233 +880,186 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1196,279 +1388,552 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B40"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87878787878788" defaultRowHeight="20.25" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.87878787878788" defaultRowHeight="24" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="173" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.87878787878788" style="1"/>
+    <col min="1" max="1" width="20.5909090909091" style="2" customWidth="1"/>
+    <col min="2" max="2" width="138.136363636364" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.87878787878788" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" ht="54" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="1" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" ht="26.45" spans="1:2">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5" t="s">
+    </row>
+    <row r="15" ht="29.4" spans="1:2">
+      <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="B20" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" customHeight="1" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
+      <c r="A22" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
       <c r="A23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="7" t="s">
         <v>34</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="7" t="s">
         <v>36</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="7" t="s">
         <v>38</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
       <c r="A26" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="B26" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
-      <c r="A27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="A27" s="6"/>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" customHeight="1" spans="1:2">
       <c r="A28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="7"/>
     </row>
     <row r="29" customHeight="1" spans="1:2">
       <c r="A29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="7"/>
+      <c r="B29" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
       <c r="A31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" customFormat="1" ht="54" customHeight="1" spans="1:2">
-      <c r="A33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" customFormat="1" customHeight="1" spans="1:2">
+      <c r="B31" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:2">
+      <c r="A32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" customFormat="1" customHeight="1" spans="1:2">
+        <v>52</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:2">
       <c r="A35" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="7"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:1">
-      <c r="A37" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:2">
-      <c r="A38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
       <c r="A39" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
       <c r="A40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:2">
+      <c r="A41" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:2">
+      <c r="A44" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:2">
+      <c r="A45" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:2">
+      <c r="A46" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:2">
+      <c r="A47" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:2">
+      <c r="A48" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:2">
+      <c r="A49" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:2">
+      <c r="A50" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:2">
+      <c r="A51" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:2">
+      <c r="A54" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:2">
+      <c r="A55" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="7">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:2">
+      <c r="A56" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:2">
+      <c r="A57" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:2">
+      <c r="A58" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:2">
+      <c r="A59" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:2">
+      <c r="A60" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:2">
+      <c r="A61" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:2">
+      <c r="A62" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:2">
+      <c r="A63" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:2">
+      <c r="A64" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:2">
+      <c r="A65" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:2">
+      <c r="A66" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:2">
+      <c r="A67" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:2">
+      <c r="A68" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:2">
+      <c r="A69" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:1">
+      <c r="A71" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:2">
+      <c r="A72" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:2">
+      <c r="A73" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:2">
+      <c r="A74" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:1">
+      <c r="A76" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:2">
+      <c r="A77" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:2">
+      <c r="A78" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
